--- a/dati-finalassignment/dati-classifica-sanremo-1951-2023.xlsx
+++ b/dati-finalassignment/dati-classifica-sanremo-1951-2023.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Google-Looker-Studio\dati-finalassignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36382515-38FA-4E96-938A-83DE05AD061B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF34DC65-096B-4868-8369-AF25A6ED6610}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1664</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -12588,10 +12585,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12933,16 +12933,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1664"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:F1664"/>
+    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
+      <selection activeCell="F1310" sqref="F1310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39087,7 +39088,7 @@
       <c r="A1308" s="1">
         <v>1307</v>
       </c>
-      <c r="B1308" t="s">
+      <c r="B1308" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C1308" t="s">
@@ -39107,7 +39108,7 @@
       <c r="A1309" s="1">
         <v>1308</v>
       </c>
-      <c r="B1309" t="s">
+      <c r="B1309" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C1309" t="s">
@@ -39127,7 +39128,7 @@
       <c r="A1310" s="1">
         <v>1309</v>
       </c>
-      <c r="B1310" t="s">
+      <c r="B1310" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C1310" t="s">
@@ -39147,6 +39148,9 @@
       <c r="A1311" s="1">
         <v>1310</v>
       </c>
+      <c r="B1311" s="2">
+        <v>11</v>
+      </c>
       <c r="C1311" t="s">
         <v>988</v>
       </c>
@@ -39164,6 +39168,9 @@
       <c r="A1312" s="1">
         <v>1311</v>
       </c>
+      <c r="B1312" s="2">
+        <v>12</v>
+      </c>
       <c r="C1312" t="s">
         <v>784</v>
       </c>
@@ -39181,6 +39188,9 @@
       <c r="A1313" s="1">
         <v>1312</v>
       </c>
+      <c r="B1313" s="2">
+        <v>13</v>
+      </c>
       <c r="C1313" t="s">
         <v>741</v>
       </c>
@@ -39198,6 +39208,9 @@
       <c r="A1314" s="1">
         <v>1313</v>
       </c>
+      <c r="B1314" s="2">
+        <v>14</v>
+      </c>
       <c r="C1314" t="s">
         <v>989</v>
       </c>
@@ -39215,6 +39228,9 @@
       <c r="A1315" s="1">
         <v>1314</v>
       </c>
+      <c r="B1315" s="2">
+        <v>15</v>
+      </c>
       <c r="C1315" t="s">
         <v>488</v>
       </c>
@@ -39232,6 +39248,9 @@
       <c r="A1316" s="1">
         <v>1315</v>
       </c>
+      <c r="B1316" s="2">
+        <v>16</v>
+      </c>
       <c r="C1316" t="s">
         <v>990</v>
       </c>
@@ -39249,6 +39268,9 @@
       <c r="A1317" s="1">
         <v>1316</v>
       </c>
+      <c r="B1317" s="2">
+        <v>17</v>
+      </c>
       <c r="C1317" t="s">
         <v>903</v>
       </c>
@@ -39266,6 +39288,9 @@
       <c r="A1318" s="1">
         <v>1317</v>
       </c>
+      <c r="B1318" s="2">
+        <v>18</v>
+      </c>
       <c r="C1318" t="s">
         <v>991</v>
       </c>
@@ -39283,6 +39308,9 @@
       <c r="A1319" s="1">
         <v>1318</v>
       </c>
+      <c r="B1319" s="2">
+        <v>19</v>
+      </c>
       <c r="C1319" t="s">
         <v>497</v>
       </c>
@@ -39300,6 +39328,9 @@
       <c r="A1320" s="1">
         <v>1319</v>
       </c>
+      <c r="B1320" s="2">
+        <v>20</v>
+      </c>
       <c r="C1320" t="s">
         <v>956</v>
       </c>
@@ -39317,7 +39348,7 @@
       <c r="A1321" s="1">
         <v>1320</v>
       </c>
-      <c r="B1321" t="s">
+      <c r="B1321" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1321" t="s">
@@ -39337,7 +39368,7 @@
       <c r="A1322" s="1">
         <v>1321</v>
       </c>
-      <c r="B1322" t="s">
+      <c r="B1322" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1322" t="s">
@@ -39357,7 +39388,7 @@
       <c r="A1323" s="1">
         <v>1322</v>
       </c>
-      <c r="B1323" t="s">
+      <c r="B1323" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1323" t="s">
@@ -39377,7 +39408,7 @@
       <c r="A1324" s="1">
         <v>1323</v>
       </c>
-      <c r="B1324" t="s">
+      <c r="B1324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1324" t="s">
@@ -46194,8 +46225,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1664" xr:uid="{73970713-9DF5-44D4-B85A-CC3E138D8817}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>